--- a/MainAssignmnet/updated.xlsx
+++ b/MainAssignmnet/updated.xlsx
@@ -390,9 +390,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -481,56 +481,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bahubali</t>
+          <t>r</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>r</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3 hr 15 min</t>
+          <t>r</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Prabhas</t>
+          <t>r</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>rajamouli</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10:00-1:30</t>
+          <t>r</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2 :00-5:30</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>67</v>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -586,138 +598,6 @@
       </c>
       <c r="M3" t="n">
         <v>97</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Kgf2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Thriller</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3hr20min</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>yash</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>mahesh</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>9:00-12:30</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1:00-430</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" t="n">
-        <v>30</v>
-      </c>
-      <c r="M4" t="n">
-        <v>100</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>robo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2hr45min</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>rajinikant,aishwaryarai</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>dee</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>10:00-12:00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>12:00-2:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>10min</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>10min</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
       </c>
     </row>
   </sheetData>
